--- a/data/czech/data_czech.xlsx
+++ b/data/czech/data_czech.xlsx
@@ -441,84 +441,72 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Hlavní město
-Praha</t>
+          <t>Hlavní město Praha</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Středočeský
- kraj</t>
+          <t>Středočeský  kraj</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Jihočeský
-kraj</t>
+          <t>Jihočeský kraj</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Plzeňský
-kraj</t>
+          <t>Plzeňský kraj</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Karlovarský
-kraj</t>
+          <t>Karlovarský kraj</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Ústecký
-kraj</t>
+          <t>Ústecký kraj</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Liberecký
-kraj</t>
+          <t>Liberecký kraj</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Královéhradecký
-kraj</t>
+          <t>Královéhradecký kraj</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Pardubický
-kraj</t>
+          <t>Pardubický kraj</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Vysočina</t>
+          <t>Kraj Vysočina</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Jihomoravský
-kraj</t>
+          <t>Jihomoravský kraj</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>Olomoucký
-kraj</t>
+          <t>Olomoucký kraj</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Zlínský
-kraj</t>
+          <t>Zlínský kraj</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
+      <c r="A2" t="inlineStr">
         <is>
           <t>Hlavní město Praha</t>
         </is>
@@ -564,7 +552,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="A3" t="inlineStr">
         <is>
           <t>Jihomoravský kraj</t>
         </is>
@@ -610,7 +598,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
+      <c r="A4" t="inlineStr">
         <is>
           <t>Jihočeský kraj</t>
         </is>
@@ -656,7 +644,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="inlineStr">
+      <c r="A5" t="inlineStr">
         <is>
           <t>Královéhradecký kraj</t>
         </is>
@@ -702,7 +690,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" t="inlineStr">
         <is>
           <t>Liberecký kraj</t>
         </is>
@@ -748,7 +736,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="inlineStr">
+      <c r="A7" t="inlineStr">
         <is>
           <t>Moravskoslezský kraj</t>
         </is>
@@ -794,7 +782,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
+      <c r="A8" t="inlineStr">
         <is>
           <t>Olomoucký kraj</t>
         </is>
@@ -840,7 +828,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="inlineStr">
+      <c r="A9" t="inlineStr">
         <is>
           <t>Pardubický kraj</t>
         </is>
@@ -886,7 +874,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
+      <c r="A10" t="inlineStr">
         <is>
           <t>Plzeňský kraj</t>
         </is>
@@ -932,7 +920,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="inlineStr">
+      <c r="A11" t="inlineStr">
         <is>
           <t>Středočeský kraj</t>
         </is>
@@ -978,9 +966,9 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Vysočina</t>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Kraj Vysočina</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -1024,7 +1012,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="inlineStr">
+      <c r="A13" t="inlineStr">
         <is>
           <t>Zlínský kraj</t>
         </is>
@@ -1070,7 +1058,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Ústecký kraj</t>
         </is>

--- a/data/czech/data_czech.xlsx
+++ b/data/czech/data_czech.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,7 +446,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Středočeský  kraj</t>
+          <t>Středočeský kraj</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -502,6 +502,11 @@
       <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Zlínský kraj</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Moravskoslezský kraj</t>
         </is>
       </c>
     </row>
@@ -550,6 +555,9 @@
       <c r="N2" t="n">
         <v>2077</v>
       </c>
+      <c r="O2" t="n">
+        <v>3449</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -596,6 +604,9 @@
       <c r="N3" t="n">
         <v>4856</v>
       </c>
+      <c r="O3" t="n">
+        <v>4570</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -642,6 +653,9 @@
       <c r="N4" t="n">
         <v>36</v>
       </c>
+      <c r="O4" t="n">
+        <v>78</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -688,6 +702,9 @@
       <c r="N5" t="n">
         <v>136</v>
       </c>
+      <c r="O5" t="n">
+        <v>224</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -734,6 +751,9 @@
       <c r="N6" t="n">
         <v>17</v>
       </c>
+      <c r="O6" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -780,6 +800,9 @@
       <c r="N7" t="n">
         <v>1423</v>
       </c>
+      <c r="O7" t="n">
+        <v>17357</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -826,6 +849,9 @@
       <c r="N8" t="n">
         <v>2833</v>
       </c>
+      <c r="O8" t="n">
+        <v>4082</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -872,6 +898,9 @@
       <c r="N9" t="n">
         <v>98</v>
       </c>
+      <c r="O9" t="n">
+        <v>189</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -918,6 +947,9 @@
       <c r="N10" t="n">
         <v>66</v>
       </c>
+      <c r="O10" t="n">
+        <v>85</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -964,6 +996,9 @@
       <c r="N11" t="n">
         <v>24</v>
       </c>
+      <c r="O11" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1010,6 +1045,9 @@
       <c r="N12" t="n">
         <v>14</v>
       </c>
+      <c r="O12" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1056,6 +1094,9 @@
       <c r="N13" t="n">
         <v>3625</v>
       </c>
+      <c r="O13" t="n">
+        <v>655</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1101,6 +1142,9 @@
       </c>
       <c r="N14" t="n">
         <v>26</v>
+      </c>
+      <c r="O14" t="n">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
